--- a/DSSExcelTests/test-files/write-test-existing.xlsx
+++ b/DSSExcelTests/test-files/write-test-existing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="SpreadsheetGear 8.4.3.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,21 +9,188 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="40001"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1Day</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,22 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -111,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -245,21 +403,18 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -321,22 +476,161 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row>
+      <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>0</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43831</v>
+      </c>
+      <c>
+        <v>0</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43832</v>
+      </c>
+      <c>
+        <v>2</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43833</v>
+      </c>
+      <c>
+        <v>4</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43834</v>
+      </c>
+      <c>
+        <v>6</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43835</v>
+      </c>
+      <c>
+        <v>8</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43836</v>
+      </c>
+      <c>
+        <v>10</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43837</v>
+      </c>
+      <c>
+        <v>12</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43838</v>
+      </c>
+      <c>
+        <v>14</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43839</v>
+      </c>
+      <c>
+        <v>16</v>
+      </c>
+    </row>
+    <row>
+      <c s="1">
+        <v>43840</v>
+      </c>
+      <c>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>